--- a/data/aunt.xlsx
+++ b/data/aunt.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F11246-9EB8-4F3D-B7CF-8F6157052B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A3E798-3C31-47F2-854A-3E4CB88C20E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$2796</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="A1:F2796"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -56379,6 +56382,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F2796" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F2796">
+      <sortCondition descending="1" ref="B1:B2796"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F2796">
+    <sortCondition descending="1" ref="B1:B2796"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
